--- a/S2 CP/ClinicalExam/CE_CP_T1.xlsx
+++ b/S2 CP/ClinicalExam/CE_CP_T1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GBW_MyPrograms\PredSim-workshop-smalll-2025\S2.  Surgical intervention for Cerebral Palsy\ClinicalExam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GBW_MyPrograms\PredSim-workshop-smalll-2025\S2 CP\ClinicalExam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C39FFA9-B50E-4027-9CE1-6C3B7E4B630B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA7EE49-B3D5-419A-9854-9331E7603DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -536,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="14">
-        <v>-80</v>
+        <v>-65</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -737,7 +737,7 @@
         <v>8</v>
       </c>
       <c r="B20" s="14">
-        <v>-65</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
